--- a/REGULAR/RE-ENCODE/ORTIZ, TRINIDAD.xlsx
+++ b/REGULAR/RE-ENCODE/ORTIZ, TRINIDAD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E24EB6-F3AB-46C7-9BDE-B81EE7147E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE341A-8B94-43DF-9748-97C3CE6B8BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>PERIOD</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>4/11,12,13,14/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1086,6 +1089,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K175" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K175" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1416,10 +1420,10 @@
   </sheetPr>
   <dimension ref="A2:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3408" topLeftCell="A112" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="3408" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5097,8 +5101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" activeCellId="1" sqref="A6 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5188,6 +5192,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>121</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5209,6 +5216,10 @@
       <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>10.833999999999996</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
